--- a/Luban/ExcelConfig/Datas/card.xlsx
+++ b/Luban/ExcelConfig/Datas/card.xlsx
@@ -10,12 +10,25 @@
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
     <sheet name="AbilityAssist" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +172,15 @@
   </si>
   <si>
     <t>包裹技能`屠戮刀法</t>
+  </si>
+  <si>
+    <t>地波斩卡牌</t>
+  </si>
+  <si>
+    <t>dibozhan</t>
+  </si>
+  <si>
+    <t>包裹技能`地波斩</t>
   </si>
   <si>
     <t>怪物横砍卡牌</t>
@@ -209,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1147,14 +1169,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1430,23 +1452,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20">
-        <v>20001</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="18" customFormat="1" spans="2:6">
+      <c r="B18">
+        <v>10011</v>
+      </c>
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E18" t="s">
         <v>50</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -1460,7 +1485,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C22" t="s">
         <v>54</v>
@@ -1470,6 +1495,20 @@
       </c>
       <c r="E22" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>20003</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1575,13 +1614,13 @@
         <v>50001</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1589,13 +1628,13 @@
         <v>50002</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/card.xlsx
+++ b/Luban/ExcelConfig/Datas/card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>card.Info</t>
+    <t>card.Info#sep=,</t>
   </si>
   <si>
     <t>##group</t>
@@ -81,7 +81,7 @@
     <t>pikan</t>
   </si>
   <si>
-    <t>包裹技能`劈砍</t>
+    <t>包裹技能,劈砍</t>
   </si>
   <si>
     <t>劈砍2卡牌</t>
@@ -90,7 +90,7 @@
     <t>pikan2</t>
   </si>
   <si>
-    <t>包裹技能`劈砍2</t>
+    <t>包裹技能,劈砍2</t>
   </si>
   <si>
     <t>劈砍3卡牌</t>
@@ -99,7 +99,7 @@
     <t>pikan3</t>
   </si>
   <si>
-    <t>包裹技能`劈砍3</t>
+    <t>包裹技能,劈砍3</t>
   </si>
   <si>
     <t>月之投射卡牌</t>
@@ -108,7 +108,7 @@
     <t>yuebiao</t>
   </si>
   <si>
-    <t>包裹技能`月之投射</t>
+    <t>包裹技能,月之投射</t>
   </si>
   <si>
     <t>月之投射2卡牌</t>
@@ -117,7 +117,7 @@
     <t>yuebiao2</t>
   </si>
   <si>
-    <t>包裹技能`月之投射2</t>
+    <t>包裹技能,月之投射2</t>
   </si>
   <si>
     <t>月之投射3卡牌</t>
@@ -126,7 +126,7 @@
     <t>yuebiao3</t>
   </si>
   <si>
-    <t>包裹技能`月之投射3</t>
+    <t>包裹技能,月之投射3</t>
   </si>
   <si>
     <t>大蒜卡牌</t>
@@ -135,7 +135,7 @@
     <t>dasuan</t>
   </si>
   <si>
-    <t>包裹技能`大蒜</t>
+    <t>包裹技能,大蒜</t>
   </si>
   <si>
     <t>跳劈卡牌</t>
@@ -144,7 +144,7 @@
     <t>tiaopi</t>
   </si>
   <si>
-    <t>包裹技能`跳劈</t>
+    <t>包裹技能,跳劈</t>
   </si>
   <si>
     <t>流星落卡牌</t>
@@ -153,7 +153,7 @@
     <t>liuxingluo</t>
   </si>
   <si>
-    <t>包裹技能`流星落</t>
+    <t>包裹技能,流星落</t>
   </si>
   <si>
     <t>烈火刀法卡牌</t>
@@ -162,7 +162,7 @@
     <t>liehuodaofa</t>
   </si>
   <si>
-    <t>包裹技能`烈火刀法</t>
+    <t>包裹技能,烈火刀法</t>
   </si>
   <si>
     <t>屠戮刀法卡牌</t>
@@ -171,7 +171,7 @@
     <t>tuludaofa</t>
   </si>
   <si>
-    <t>包裹技能`屠戮刀法</t>
+    <t>包裹技能,屠戮刀法</t>
   </si>
   <si>
     <t>地波斩卡牌</t>
@@ -180,7 +180,7 @@
     <t>dibozhan</t>
   </si>
   <si>
-    <t>包裹技能`地波斩</t>
+    <t>包裹技能,地波斩</t>
   </si>
   <si>
     <t>怪物横砍卡牌</t>
@@ -189,7 +189,7 @@
     <t>gw_hengkan</t>
   </si>
   <si>
-    <t>包裹技能`怪物横砍</t>
+    <t>包裹技能,怪物横砍</t>
   </si>
   <si>
     <t>怪物劈砍卡牌</t>
@@ -198,7 +198,7 @@
     <t>gw_pikan</t>
   </si>
   <si>
-    <t>包裹技能`怪物劈砍</t>
+    <t>包裹技能,怪物劈砍</t>
   </si>
   <si>
     <t>怪物快射卡牌</t>
@@ -207,7 +207,7 @@
     <t>gw_kuaishe</t>
   </si>
   <si>
-    <t>包裹技能`怪物快射</t>
+    <t>包裹技能,怪物快射</t>
   </si>
   <si>
     <t>短剑卡牌</t>
@@ -216,7 +216,7 @@
     <t>duanjian</t>
   </si>
   <si>
-    <t>包裹技能辅助`短剑</t>
+    <t>包裹技能辅助,短剑</t>
   </si>
   <si>
     <t>袖剑</t>
@@ -225,7 +225,7 @@
     <t>xiujian</t>
   </si>
   <si>
-    <t>包裹技能辅助`袖剑</t>
+    <t>包裹技能辅助,袖剑</t>
   </si>
 </sst>
 </file>
@@ -1171,15 +1171,15 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1522,11 +1522,11 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
